--- a/other files/Drone_orgs-by-branch-via-.mil-webpages.xlsx
+++ b/other files/Drone_orgs-by-branch-via-.mil-webpages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usaf-my.dps.mil/personal/daniel_rust_5_us_af_mil/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFEBA602-E979-4329-8FD6-52AC6CB6C2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{21C0F0AC-B354-4B01-840E-D8AD396080FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="90" windowWidth="29040" windowHeight="15630" xr2:uid="{FE133DB4-8205-4467-8B8E-80C887A1500E}"/>
   </bookViews>
@@ -16,11 +16,28 @@
     <sheet name="Pivot table - customizable" sheetId="2" r:id="rId1"/>
     <sheet name="UAS articles and releases by se" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="Slicer_Date">#N/A</definedName>
+    <definedName name="Slicer_Location">#N/A</definedName>
+    <definedName name="Slicer_Service_1">#N/A</definedName>
+    <definedName name="Slicer_Unit">#N/A</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId4"/>
+        <x14:slicerCache r:id="rId5"/>
+        <x14:slicerCache r:id="rId6"/>
+        <x14:slicerCache r:id="rId7"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -1643,8 +1660,321 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>8096250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9925050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Service 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01BF2505-745B-BD1F-9F38-7271B75D9262}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Service 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8096250" y="914400"/>
+              <a:ext cx="1828800" cy="2524125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6305550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>8134350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Unit">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F08592CF-9242-D283-5685-F7D5A940D5D0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Unit"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6305550" y="2981325"/>
+              <a:ext cx="1828800" cy="2524125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>8201025</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>10029825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Location">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43D9E7D6-C68F-DAAE-7160-3E00F392A908}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Location"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8201025" y="2971800"/>
+              <a:ext cx="1828800" cy="2524125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>10144125</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>11972925</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Date">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ED049B8-58C1-B48A-33F2-94BC1AFE161E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Date"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10144125" y="2971800"/>
+              <a:ext cx="1828800" cy="2524125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1891,7 +2221,7 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
+      <x14:pivotCacheDefinition pivotCacheId="153421968"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -3423,7 +3753,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1BF77951-E2EA-4364-80C3-5A69F9FE9B86}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1BF77951-E2EA-4364-80C3-5A69F9FE9B86}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A235" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField axis="axisRow" showAll="0">
@@ -4357,6 +4687,251 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Service_1" xr10:uid="{A4463ED2-4C29-4BD9-9D4B-C86E2720246F}" sourceName="Service 1">
+  <pivotTables>
+    <pivotTable tabId="2" name="PivotTable1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="153421968">
+      <items count="5">
+        <i x="3" s="1"/>
+        <i x="0" s="1"/>
+        <i x="4" s="1"/>
+        <i x="2" s="1"/>
+        <i x="1" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Unit" xr10:uid="{D073CFCA-63AF-401A-BFEF-0AC4294ADA71}" sourceName="Unit">
+  <pivotTables>
+    <pivotTable tabId="2" name="PivotTable1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="153421968">
+      <items count="69">
+        <i x="36" s="1"/>
+        <i x="58" s="1"/>
+        <i x="63" s="1"/>
+        <i x="41" s="1"/>
+        <i x="60" s="1"/>
+        <i x="54" s="1"/>
+        <i x="12" s="1"/>
+        <i x="52" s="1"/>
+        <i x="13" s="1"/>
+        <i x="53" s="1"/>
+        <i x="56" s="1"/>
+        <i x="61" s="1"/>
+        <i x="62" s="1"/>
+        <i x="59" s="1"/>
+        <i x="2" s="1"/>
+        <i x="10" s="1"/>
+        <i x="15" s="1"/>
+        <i x="9" s="1"/>
+        <i x="50" s="1"/>
+        <i x="35" s="1"/>
+        <i x="48" s="1"/>
+        <i x="17" s="1"/>
+        <i x="22" s="1"/>
+        <i x="49" s="1"/>
+        <i x="38" s="1"/>
+        <i x="0" s="1"/>
+        <i x="11" s="1"/>
+        <i x="5" s="1"/>
+        <i x="40" s="1"/>
+        <i x="7" s="1"/>
+        <i x="16" s="1"/>
+        <i x="14" s="1"/>
+        <i x="46" s="1"/>
+        <i x="44" s="1"/>
+        <i x="39" s="1"/>
+        <i x="45" s="1"/>
+        <i x="47" s="1"/>
+        <i x="42" s="1"/>
+        <i x="64" s="1"/>
+        <i x="31" s="1"/>
+        <i x="34" s="1"/>
+        <i x="32" s="1"/>
+        <i x="51" s="1"/>
+        <i x="1" s="1"/>
+        <i x="27" s="1"/>
+        <i x="6" s="1"/>
+        <i x="30" s="1"/>
+        <i x="23" s="1"/>
+        <i x="28" s="1"/>
+        <i x="43" s="1"/>
+        <i x="33" s="1"/>
+        <i x="25" s="1"/>
+        <i x="37" s="1"/>
+        <i x="20" s="1"/>
+        <i x="26" s="1"/>
+        <i x="4" s="1"/>
+        <i x="29" s="1"/>
+        <i x="18" s="1"/>
+        <i x="19" s="1"/>
+        <i x="24" s="1"/>
+        <i x="8" s="1"/>
+        <i x="57" s="1"/>
+        <i x="55" s="1"/>
+        <i x="21" s="1"/>
+        <i x="68" s="1"/>
+        <i x="66" s="1"/>
+        <i x="65" s="1"/>
+        <i x="67" s="1"/>
+        <i x="3" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Location" xr10:uid="{4086DC86-D0A4-4352-B0B3-3CB0E52BCBD4}" sourceName="Location">
+  <pivotTables>
+    <pivotTable tabId="2" name="PivotTable1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="153421968">
+      <items count="44">
+        <i x="40" s="1"/>
+        <i x="17" s="1"/>
+        <i x="16" s="1"/>
+        <i x="19" s="1"/>
+        <i x="13" s="1"/>
+        <i x="38" s="1"/>
+        <i x="25" s="1"/>
+        <i x="32" s="1"/>
+        <i x="27" s="1"/>
+        <i x="31" s="1"/>
+        <i x="36" s="1"/>
+        <i x="10" s="1"/>
+        <i x="8" s="1"/>
+        <i x="5" s="1"/>
+        <i x="9" s="1"/>
+        <i x="3" s="1"/>
+        <i x="11" s="1"/>
+        <i x="15" s="1"/>
+        <i x="30" s="1"/>
+        <i x="26" s="1"/>
+        <i x="28" s="1"/>
+        <i x="41" s="1"/>
+        <i x="18" s="1"/>
+        <i x="24" s="1"/>
+        <i x="23" s="1"/>
+        <i x="14" s="1"/>
+        <i x="20" s="1"/>
+        <i x="21" s="1"/>
+        <i x="34" s="1"/>
+        <i x="4" s="1"/>
+        <i x="7" s="1"/>
+        <i x="33" s="1"/>
+        <i x="35" s="1"/>
+        <i x="1" s="1"/>
+        <i x="39" s="1"/>
+        <i x="43" s="1"/>
+        <i x="12" s="1"/>
+        <i x="2" s="1"/>
+        <i x="29" s="1"/>
+        <i x="22" s="1"/>
+        <i x="37" s="1"/>
+        <i x="42" s="1"/>
+        <i x="6" s="1"/>
+        <i x="0" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Date" xr10:uid="{AF2977EF-2EEB-4028-B308-5E5D2B6A2B8A}" sourceName="Date">
+  <pivotTables>
+    <pivotTable tabId="2" name="PivotTable1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="153421968">
+      <items count="62">
+        <i x="47" s="1"/>
+        <i x="14" s="1"/>
+        <i x="1" s="1"/>
+        <i x="13" s="1"/>
+        <i x="4" s="1"/>
+        <i x="8" s="1"/>
+        <i x="34" s="1"/>
+        <i x="58" s="1"/>
+        <i x="15" s="1"/>
+        <i x="12" s="1"/>
+        <i x="11" s="1"/>
+        <i x="57" s="1"/>
+        <i x="17" s="1"/>
+        <i x="56" s="1"/>
+        <i x="16" s="1"/>
+        <i x="10" s="1"/>
+        <i x="5" s="1"/>
+        <i x="60" s="1"/>
+        <i x="61" s="1"/>
+        <i x="48" s="1"/>
+        <i x="51" s="1"/>
+        <i x="6" s="1"/>
+        <i x="32" s="1"/>
+        <i x="7" s="1"/>
+        <i x="2" s="1"/>
+        <i x="39" s="1"/>
+        <i x="53" s="1"/>
+        <i x="33" s="1"/>
+        <i x="0" s="1"/>
+        <i x="31" s="1"/>
+        <i x="22" s="1"/>
+        <i x="36" s="1"/>
+        <i x="55" s="1"/>
+        <i x="46" s="1"/>
+        <i x="21" s="1"/>
+        <i x="9" s="1"/>
+        <i x="30" s="1"/>
+        <i x="45" s="1"/>
+        <i x="43" s="1"/>
+        <i x="26" s="1"/>
+        <i x="3" s="1"/>
+        <i x="29" s="1"/>
+        <i x="37" s="1"/>
+        <i x="24" s="1"/>
+        <i x="52" s="1"/>
+        <i x="41" s="1"/>
+        <i x="19" s="1"/>
+        <i x="42" s="1"/>
+        <i x="54" s="1"/>
+        <i x="38" s="1"/>
+        <i x="44" s="1"/>
+        <i x="50" s="1"/>
+        <i x="18" s="1"/>
+        <i x="25" s="1"/>
+        <i x="59" s="1"/>
+        <i x="27" s="1"/>
+        <i x="40" s="1"/>
+        <i x="35" s="1"/>
+        <i x="28" s="1"/>
+        <i x="49" s="1"/>
+        <i x="20" s="1"/>
+        <i x="23" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Service 1" xr10:uid="{EF8B9017-9F9A-43FD-9652-C2FC9B754D59}" cache="Slicer_Service_1" caption="Service 1" rowHeight="241300"/>
+  <slicer name="Unit" xr10:uid="{F2885C10-AA6A-4128-8FB5-02353EFC7712}" cache="Slicer_Unit" caption="Unit" rowHeight="241300"/>
+  <slicer name="Location" xr10:uid="{F3053CF9-0770-4ACD-8D04-D13139DB7425}" cache="Slicer_Location" caption="Location" rowHeight="241300"/>
+  <slicer name="Date" xr10:uid="{80F3B6A6-9039-409B-8002-24DAE452A767}" cache="Slicer_Date" caption="Date" rowHeight="241300"/>
+</slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4685,7 +5260,7 @@
   <dimension ref="A3:A235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5894,6 +6469,14 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
